--- a/impactFactors/intermediate/importedButUnalteredForCheckingVsGabi.xlsx
+++ b/impactFactors/intermediate/importedButUnalteredForCheckingVsGabi.xlsx
@@ -36007,7 +36007,7 @@
         <v>68</v>
       </c>
       <c r="G1383" t="n">
-        <v>-268.735329279232</v>
+        <v>-2406.05391514515</v>
       </c>
       <c r="H1383" t="s">
         <v>69</v>
@@ -50151,7 +50151,7 @@
         <v>68</v>
       </c>
       <c r="G1927" t="n">
-        <v>-459.081135398217</v>
+        <v>-2596.39972126413</v>
       </c>
       <c r="H1927" t="s">
         <v>71</v>
@@ -50203,7 +50203,7 @@
         <v>68</v>
       </c>
       <c r="G1929" t="n">
-        <v>503.464817609131</v>
+        <v>-1633.85376825679</v>
       </c>
       <c r="H1929" t="s">
         <v>71</v>
@@ -57769,7 +57769,7 @@
         <v>68</v>
       </c>
       <c r="G2220" t="n">
-        <v>-306.889839616597</v>
+        <v>-2444.20842548251</v>
       </c>
       <c r="H2220" t="s">
         <v>74</v>
@@ -71913,7 +71913,7 @@
         <v>68</v>
       </c>
       <c r="G2764" t="n">
-        <v>-497.298289769922</v>
+        <v>-2634.61687563584</v>
       </c>
       <c r="H2764" t="s">
         <v>76</v>
@@ -71965,7 +71965,7 @@
         <v>68</v>
       </c>
       <c r="G2766" t="n">
-        <v>465.247663237425</v>
+        <v>-1672.07092262849</v>
       </c>
       <c r="H2766" t="s">
         <v>76</v>

--- a/impactFactors/intermediate/importedButUnalteredForCheckingVsGabi.xlsx
+++ b/impactFactors/intermediate/importedButUnalteredForCheckingVsGabi.xlsx
@@ -30885,7 +30885,7 @@
         <v>68</v>
       </c>
       <c r="G1186" t="n">
-        <v>-20.7582203170089</v>
+        <v>51.8173035875543</v>
       </c>
       <c r="H1186" t="s">
         <v>69</v>
@@ -30937,7 +30937,7 @@
         <v>68</v>
       </c>
       <c r="G1188" t="n">
-        <v>-28.3439736869297</v>
+        <v>80.5193121699151</v>
       </c>
       <c r="H1188" t="s">
         <v>69</v>
@@ -35799,7 +35799,7 @@
         <v>68</v>
       </c>
       <c r="G1375" t="n">
-        <v>-28.3439736869297</v>
+        <v>80.5193121699151</v>
       </c>
       <c r="H1375" t="s">
         <v>69</v>
@@ -36007,7 +36007,7 @@
         <v>68</v>
       </c>
       <c r="G1383" t="n">
-        <v>-2406.05391514515</v>
+        <v>-268.735329279232</v>
       </c>
       <c r="H1383" t="s">
         <v>69</v>
@@ -36059,7 +36059,7 @@
         <v>68</v>
       </c>
       <c r="G1385" t="n">
-        <v>-20.7582203170089</v>
+        <v>51.8173035875543</v>
       </c>
       <c r="H1385" t="s">
         <v>69</v>
@@ -36111,7 +36111,7 @@
         <v>68</v>
       </c>
       <c r="G1387" t="n">
-        <v>-28.3439736869297</v>
+        <v>80.5193121699151</v>
       </c>
       <c r="H1387" t="s">
         <v>69</v>
@@ -52647,7 +52647,7 @@
         <v>68</v>
       </c>
       <c r="G2023" t="n">
-        <v>56.8686961921398</v>
+        <v>129.444220096703</v>
       </c>
       <c r="H2023" t="s">
         <v>74</v>
@@ -52699,7 +52699,7 @@
         <v>68</v>
       </c>
       <c r="G2025" t="n">
-        <v>12.154469273813</v>
+        <v>121.017755130658</v>
       </c>
       <c r="H2025" t="s">
         <v>74</v>
@@ -57561,7 +57561,7 @@
         <v>68</v>
       </c>
       <c r="G2212" t="n">
-        <v>12.154469273813</v>
+        <v>121.017755130658</v>
       </c>
       <c r="H2212" t="s">
         <v>74</v>
@@ -57769,7 +57769,7 @@
         <v>68</v>
       </c>
       <c r="G2220" t="n">
-        <v>-2444.20842548251</v>
+        <v>-306.889839616597</v>
       </c>
       <c r="H2220" t="s">
         <v>74</v>
@@ -57821,7 +57821,7 @@
         <v>68</v>
       </c>
       <c r="G2222" t="n">
-        <v>56.8686961921398</v>
+        <v>129.444220096703</v>
       </c>
       <c r="H2222" t="s">
         <v>74</v>
@@ -57873,7 +57873,7 @@
         <v>68</v>
       </c>
       <c r="G2224" t="n">
-        <v>12.154469273813</v>
+        <v>121.017755130658</v>
       </c>
       <c r="H2224" t="s">
         <v>74</v>

--- a/impactFactors/intermediate/importedButUnalteredForCheckingVsGabi.xlsx
+++ b/impactFactors/intermediate/importedButUnalteredForCheckingVsGabi.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -287,7 +287,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -606,10 +606,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
